--- a/AMS/controllers/teacher_file55.xlsx
+++ b/AMS/controllers/teacher_file55.xlsx
@@ -21,20 +21,20 @@
     <t>teachers_email</t>
   </si>
   <si>
-    <t>teacher1@example.com</t>
+    <t>teacherp@example.com</t>
   </si>
   <si>
-    <t>teacher2@example.com</t>
+    <t>teacherq@example.com</t>
   </si>
   <si>
-    <t>teacher3@example.com</t>
+    <t>teacherr@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +46,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -66,14 +73,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,7 +382,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -382,24 +395,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
